--- a/data/Dallas_GDP.xlsx
+++ b/data/Dallas_GDP.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whelvey\Documents\GitHub\inflation_cr_expansion\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\inflation_cr_expansion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E25FDC80-28C2-4DE7-B1A6-132E85B09837}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A87A27-BD04-4F15-A9E4-B564507AB16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="114210"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -64,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -412,11 +403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A17" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -480,7 +471,7 @@
         <v>36892</v>
       </c>
       <c r="B12" s="2">
-        <v>230410.024</v>
+        <v>227080.47500000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -488,7 +479,7 @@
         <v>37257</v>
       </c>
       <c r="B13" s="2">
-        <v>239100.962</v>
+        <v>236415.902</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -496,7 +487,7 @@
         <v>37622</v>
       </c>
       <c r="B14" s="2">
-        <v>245066.68599999999</v>
+        <v>243606.20699999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -504,7 +495,7 @@
         <v>37987</v>
       </c>
       <c r="B15" s="2">
-        <v>263772.15500000003</v>
+        <v>263007.68400000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -512,7 +503,7 @@
         <v>38353</v>
       </c>
       <c r="B16" s="2">
-        <v>284456.50799999997</v>
+        <v>284629.81400000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -520,7 +511,7 @@
         <v>38718</v>
       </c>
       <c r="B17" s="2">
-        <v>307562.12199999997</v>
+        <v>314651.88199999998</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -528,7 +519,7 @@
         <v>39083</v>
       </c>
       <c r="B18" s="2">
-        <v>326986.82699999999</v>
+        <v>332946.79300000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -536,7 +527,7 @@
         <v>39448</v>
       </c>
       <c r="B19" s="2">
-        <v>340573.587</v>
+        <v>343969.79700000002</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -544,7 +535,7 @@
         <v>39814</v>
       </c>
       <c r="B20" s="2">
-        <v>324428.44699999999</v>
+        <v>327718.81599999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -552,7 +543,7 @@
         <v>40179</v>
       </c>
       <c r="B21" s="2">
-        <v>336217.27</v>
+        <v>340179.679</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -560,7 +551,7 @@
         <v>40544</v>
       </c>
       <c r="B22" s="2">
-        <v>354989.304</v>
+        <v>359386.45799999998</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -568,7 +559,7 @@
         <v>40909</v>
       </c>
       <c r="B23" s="2">
-        <v>374743.31199999998</v>
+        <v>377846.40700000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -576,7 +567,7 @@
         <v>41275</v>
       </c>
       <c r="B24" s="2">
-        <v>392917.44699999999</v>
+        <v>396428.07199999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -584,7 +575,7 @@
         <v>41640</v>
       </c>
       <c r="B25" s="2">
-        <v>415238.962</v>
+        <v>417730.68800000002</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -592,7 +583,7 @@
         <v>42005</v>
       </c>
       <c r="B26" s="2">
-        <v>435857.522</v>
+        <v>438084.24800000002</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -600,7 +591,7 @@
         <v>42370</v>
       </c>
       <c r="B27" s="2">
-        <v>453858.011</v>
+        <v>456712.67499999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -608,7 +599,7 @@
         <v>42736</v>
       </c>
       <c r="B28" s="2">
-        <v>478176.22</v>
+        <v>480906.20299999998</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -616,7 +607,7 @@
         <v>43101</v>
       </c>
       <c r="B29" s="2">
-        <v>505768.51500000001</v>
+        <v>511962.53700000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -624,7 +615,15 @@
         <v>43466</v>
       </c>
       <c r="B30" s="2">
-        <v>523861.973</v>
+        <v>540633.96100000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B31" s="2">
+        <v>534807.25100000005</v>
       </c>
     </row>
   </sheetData>
